--- a/report/HongTT_HRM.xlsx
+++ b/report/HongTT_HRM.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\quanlynhansu\QLNV_document\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4137A2A4-77DE-42A9-992A-BCB17DB74DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D4811C-EC90-4453-91A6-BE2C81F8DDE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report 20200825" sheetId="1" r:id="rId1"/>
+    <sheet name="Report 20200826" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>STT</t>
   </si>
@@ -46,6 +47,15 @@
   </si>
   <si>
     <t>in process</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Kết hợp Vuex và Vue-i18n</t>
+  </si>
+  <si>
+    <t>bug bắt sự kiện</t>
   </si>
 </sst>
 </file>
@@ -81,7 +91,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,7 +139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -147,6 +163,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -432,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,4 +603,161 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9CC714-D01E-4A02-A5B6-087F98C97E2A}">
+  <dimension ref="C4:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="9"/>
+    <col min="3" max="3" width="11" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/report/HongTT_HRM.xlsx
+++ b/report/HongTT_HRM.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\quanlynhansu\QLNV_document\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D4811C-EC90-4453-91A6-BE2C81F8DDE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D440813A-058C-4698-BA85-A0D9DA084007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report 20200825" sheetId="1" r:id="rId1"/>
     <sheet name="Report 20200826" sheetId="2" r:id="rId2"/>
+    <sheet name="Report 20200828" sheetId="3" r:id="rId3"/>
+    <sheet name="Report 20200831" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>STT</t>
   </si>
@@ -56,13 +58,32 @@
   </si>
   <si>
     <t>bug bắt sự kiện</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Tìm hiểu vue với multi composer</t>
+  </si>
+  <si>
+    <t>multi language</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Create Basic design login, 
+changePassword</t>
+  </si>
+  <si>
+    <t>Create Basic design logout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +110,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -139,7 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -180,6 +207,9 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -609,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9CC714-D01E-4A02-A5B6-087F98C97E2A}">
   <dimension ref="C4:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,4 +790,307 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A45F468-17DF-49BF-8570-20E405D71B0B}">
+  <dimension ref="C4:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="9"/>
+    <col min="3" max="3" width="11" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E4F024-10A2-47A7-978B-1AC6208C28AA}">
+  <dimension ref="C4:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="9"/>
+    <col min="3" max="3" width="11" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/report/HongTT_HRM.xlsx
+++ b/report/HongTT_HRM.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\quanlynhansu\QLNV_document\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D440813A-058C-4698-BA85-A0D9DA084007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2F3079-6753-4C4B-B928-B6E305898540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report 20200825" sheetId="1" r:id="rId1"/>
     <sheet name="Report 20200826" sheetId="2" r:id="rId2"/>
     <sheet name="Report 20200828" sheetId="3" r:id="rId3"/>
     <sheet name="Report 20200831" sheetId="4" r:id="rId4"/>
+    <sheet name="Report 20200901" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>STT</t>
   </si>
@@ -77,6 +78,10 @@
   </si>
   <si>
     <t>Create Basic design logout</t>
+  </si>
+  <si>
+    <t>Update Basic design login, 
+changePassword</t>
   </si>
 </sst>
 </file>
@@ -960,7 +965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E4F024-10A2-47A7-978B-1AC6208C28AA}">
   <dimension ref="C4:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1093,4 +1100,145 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DEF521-5A80-422B-B710-7C1C9B58F176}">
+  <dimension ref="C4:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="9"/>
+    <col min="3" max="3" width="11" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/report/HongTT_HRM.xlsx
+++ b/report/HongTT_HRM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\quanlynhansu\QLNV_document\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2F3079-6753-4C4B-B928-B6E305898540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C0E0AF-6517-4D5E-8183-D7409FF36F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report 20200825" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Report 20200828" sheetId="3" r:id="rId3"/>
     <sheet name="Report 20200831" sheetId="4" r:id="rId4"/>
     <sheet name="Report 20200901" sheetId="5" r:id="rId5"/>
+    <sheet name="Report 20200903" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
   <si>
     <t>STT</t>
   </si>
@@ -82,6 +83,9 @@
   <si>
     <t>Update Basic design login, 
 changePassword</t>
+  </si>
+  <si>
+    <t>Create Basic design import file</t>
   </si>
 </sst>
 </file>
@@ -1106,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DEF521-5A80-422B-B710-7C1C9B58F176}">
   <dimension ref="C4:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,4 +1245,130 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3950D0-DE4F-4DD0-AB31-DD6B9C18690A}">
+  <dimension ref="C4:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="9"/>
+    <col min="3" max="3" width="11" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>